--- a/V1I1/BOM/DAPLink-STM32F103CBT6-V1I1采购报价BOM.xlsx
+++ b/V1I1/BOM/DAPLink-STM32F103CBT6-V1I1采购报价BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AutoBackJobs\AISkyLab\01_HWCheckout\07_SkyHW_AltiumProjects\0B_HWDesign\0C_Projects\DAPLink-STM32F103CBT6\V1I1\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1DB69B-DCF3-4A21-BCE6-8F6D55A319A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E790A6-C9D4-4909-9C4B-4EB7759105F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{387C20A8-3C86-402E-9488-3FC3F6D6CCE9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
   <si>
     <t>贴片电容</t>
   </si>
@@ -256,6 +256,10 @@
   </si>
   <si>
     <t>标准型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉立创</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -695,7 +699,7 @@
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1542,7 +1546,9 @@
         <v>41</v>
       </c>
       <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="F22" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="4"/>
@@ -1581,7 +1587,9 @@
         <v>57</v>
       </c>
       <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="F23" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="4"/>
